--- a/data/park/data.xlsx
+++ b/data/park/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1967,10 +1967,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="str">
-        <v>34.34856333</v>
+        <v>34.348700628042806</v>
       </c>
       <c r="C61" t="str">
-        <v>134.08787167</v>
+        <v>134.08807551788038</v>
       </c>
       <c r="D61" t="str">
         <v>亥浜第二公園</v>
@@ -3146,7 +3146,7 @@
         <v>川島中央公園</v>
       </c>
       <c r="E106" t="str">
-        <v>高松市川島本町117-36</v>
+        <v>高松市川島本町230-1</v>
       </c>
       <c r="F106" t="str">
         <v/>
@@ -4235,7 +4235,7 @@
         <v>134.16339722</v>
       </c>
       <c r="D148" t="str">
-        <v>牟礼原ｸﾘｰﾝﾊｲﾂ西公園</v>
+        <v>牟礼原クリーンハイツ西公園</v>
       </c>
       <c r="E148" t="str">
         <v>高松市牟礼町原56-198</v>
@@ -4261,7 +4261,7 @@
         <v>134.16470278</v>
       </c>
       <c r="D149" t="str">
-        <v>牟礼原ｸﾘｰﾝﾊｲﾂ東公園</v>
+        <v>牟礼原クリーンハイツ東公園</v>
       </c>
       <c r="E149" t="str">
         <v>高松市牟礼町原56-187</v>
@@ -4807,7 +4807,7 @@
         <v>134.15294611</v>
       </c>
       <c r="D170" t="str">
-        <v>大町ｸﾘｰﾝﾊｲﾂ公園</v>
+        <v>大町クリーンハイツ公園</v>
       </c>
       <c r="E170" t="str">
         <v>高松市牟礼町大町2346-46</v>
@@ -4833,7 +4833,7 @@
         <v>134.15078</v>
       </c>
       <c r="D171" t="str">
-        <v>ｸﾞﾘｰﾝﾋﾙ大町公園</v>
+        <v>グリーンヒル大町公園</v>
       </c>
       <c r="E171" t="str">
         <v>高松市牟礼町大町1201-9</v>
@@ -5431,7 +5431,7 @@
         <v>133.96684611</v>
       </c>
       <c r="D194" t="str">
-        <v>国分寺万灯ｸﾞﾘｰﾝ団地公園</v>
+        <v>国分寺万灯グリーン団地公園</v>
       </c>
       <c r="E194" t="str">
         <v>高松市国分寺町新居947-16</v>
@@ -5821,7 +5821,7 @@
         <v>134.04527139</v>
       </c>
       <c r="D209" t="str">
-        <v>浅野平池ｸﾞﾘｰﾝﾀｳﾝ東公園</v>
+        <v>浅野平池グリーンタウン東公園</v>
       </c>
       <c r="E209" t="str">
         <v>高松市香川町浅野2280-12</v>
@@ -5951,7 +5951,7 @@
         <v>134.04088222</v>
       </c>
       <c r="D214" t="str">
-        <v>日生ﾆｭｰﾀｳﾝ南団地公園</v>
+        <v>日生ニュータウン南団地公園</v>
       </c>
       <c r="E214" t="str">
         <v>高松市香川町川東上566-159</v>
@@ -5977,7 +5977,7 @@
         <v>134.03781167</v>
       </c>
       <c r="D215" t="str">
-        <v>日生ﾆｭｰﾀｳﾝ西団地公園</v>
+        <v>日生ニュータウン西団地公園</v>
       </c>
       <c r="E215" t="str">
         <v>高松市香川町川東上636-167</v>
@@ -6003,7 +6003,7 @@
         <v>134.03898194</v>
       </c>
       <c r="D216" t="str">
-        <v>日生ﾆｭｰﾀｳﾝ北団地公園</v>
+        <v>日生ニュータウン北団地公園</v>
       </c>
       <c r="E216" t="str">
         <v>高松市香川町川東上652-86</v>
@@ -6315,7 +6315,7 @@
         <v>133.96588333</v>
       </c>
       <c r="D228" t="str">
-        <v>国分寺楠井ｸﾞﾘｰﾝﾊｲﾂ公園</v>
+        <v>国分寺楠井グリーンハイツ公園</v>
       </c>
       <c r="E228" t="str">
         <v>高松市国分寺町福家甲3675</v>
@@ -8202,9 +8202,196 @@
         <v/>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>301</v>
+      </c>
+      <c r="B301" t="str">
+        <v>34.34483919930982</v>
+      </c>
+      <c r="C301" t="str">
+        <v>133.99957357518497</v>
+      </c>
+      <c r="D301" t="str">
+        <v>本津北西（南）公園</v>
+      </c>
+      <c r="E301" t="str">
+        <v>高松市香西本町373-33</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>302</v>
+      </c>
+      <c r="B302" t="str">
+        <v>34.345242252761594</v>
+      </c>
+      <c r="C302" t="str">
+        <v>134.00032459371243</v>
+      </c>
+      <c r="D302" t="str">
+        <v>本津北西（北）公園</v>
+      </c>
+      <c r="E302" t="str">
+        <v>高松市香西本町373-14</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>303</v>
+      </c>
+      <c r="B303" t="str">
+        <v>34.294186442062845</v>
+      </c>
+      <c r="C303" t="str">
+        <v>134.02746676441782</v>
+      </c>
+      <c r="D303" t="str">
+        <v>一宮神木公園</v>
+      </c>
+      <c r="E303" t="str">
+        <v>高松市一宮町1049-3</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>304</v>
+      </c>
+      <c r="B304" t="str">
+        <v>34.325136666555366</v>
+      </c>
+      <c r="C304" t="str">
+        <v>134.0948908301336</v>
+      </c>
+      <c r="D304" t="str">
+        <v>春日川北公園</v>
+      </c>
+      <c r="E304" t="str">
+        <v>高松市春日町841-5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>305</v>
+      </c>
+      <c r="B305" t="str">
+        <v>34.3086796369778</v>
+      </c>
+      <c r="C305" t="str">
+        <v>134.04475836472557</v>
+      </c>
+      <c r="D305" t="str">
+        <v>中下所公園</v>
+      </c>
+      <c r="E305" t="str">
+        <v>高松市太田下町2323-1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>306</v>
+      </c>
+      <c r="B306" t="str">
+        <v>34.29792193066944</v>
+      </c>
+      <c r="C306" t="str">
+        <v>134.07098282796443</v>
+      </c>
+      <c r="D306" t="str">
+        <v>林町ふれあい公園</v>
+      </c>
+      <c r="E306" t="str">
+        <v>高松市林町202-26</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>307</v>
+      </c>
+      <c r="B307" t="str">
+        <v>34.30333864507455</v>
+      </c>
+      <c r="C307" t="str">
+        <v>134.07796461544638</v>
+      </c>
+      <c r="D307" t="str">
+        <v>三ツ股公園</v>
+      </c>
+      <c r="E307" t="str">
+        <v>高松市林町1338-25</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>308</v>
+      </c>
+      <c r="B308" t="str">
+        <v>34.281662970446</v>
+      </c>
+      <c r="C308" t="str">
+        <v>134.0458534193009</v>
+      </c>
+      <c r="D308" t="str">
+        <v>櫻馬場公園</v>
+      </c>
+      <c r="E308" t="str">
+        <v>高松市仏生山町500-9</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>309</v>
+      </c>
+      <c r="B309" t="str">
+        <v>34.281665872721256</v>
+      </c>
+      <c r="C309" t="str">
+        <v>133.95914096134942</v>
+      </c>
+      <c r="D309" t="str">
+        <v>うさんこ春日公園</v>
+      </c>
+      <c r="E309" t="str">
+        <v>国分寺町新名1381-16</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>310</v>
+      </c>
+      <c r="B310" t="str">
+        <v>34.37401710532427</v>
+      </c>
+      <c r="C310" t="str">
+        <v>133.94268364423095</v>
+      </c>
+      <c r="D310" t="str">
+        <v>亀水中央公園</v>
+      </c>
+      <c r="E310" t="str">
+        <v>高松市亀水町458-3</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>311</v>
+      </c>
+      <c r="B311" t="str">
+        <v>34.3007041985323</v>
+      </c>
+      <c r="C311" t="str">
+        <v>133.99388020831924</v>
+      </c>
+      <c r="D311" t="str">
+        <v>まゆみ公園</v>
+      </c>
+      <c r="E311" t="str">
+        <v>高松市御厩町771-1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H300"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H311"/>
   </ignoredErrors>
 </worksheet>
 </file>